--- a/src/AWS/ToUpload/Label/label_info.xlsx
+++ b/src/AWS/ToUpload/Label/label_info.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc463\Documents\JamesLocal\DS\Drone\dsmapv2\src\AWS\ToUpload\Label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{804F0FFB-A41D-4013-90ED-3D0C1A06B5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D768F8E1-A020-43C4-9919-CDCD01B1DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9BB7FAD-D7EE-4075-B313-752A17E78074}"/>
   </bookViews>
   <sheets>
     <sheet name="simplified" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">simplified!$A$1:$C$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="187">
   <si>
     <t>L1</t>
   </si>
@@ -342,6 +345,288 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
@@ -698,771 +983,1054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1084F7-BDB4-4E7B-8171-83A39DCB3DC8}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" t="s">
         <v>35</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" t="s">
         <v>35</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
         <v>35</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" t="s">
         <v>35</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s">
         <v>35</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
         <v>35</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" t="s">
         <v>35</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s">
         <v>35</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
         <v>35</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
         <v>35</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
         <v>35</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" t="s">
         <v>35</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
         <v>36</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
         <v>36</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
         <v>36</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
         <v>36</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
       </c>
+      <c r="C94" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C94" xr:uid="{FD1084F7-BDB4-4E7B-8171-83A39DCB3DC8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/AWS/ToUpload/Label/label_info.xlsx
+++ b/src/AWS/ToUpload/Label/label_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc463\Documents\JamesLocal\DS\Drone\dsmapv2\src\AWS\ToUpload\Label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830E5C04-E848-481D-A753-ED5D456234E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55312BC6-31EF-41AF-A764-1B83ADB43767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9BB7FAD-D7EE-4075-B313-752A17E78074}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="simplified" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">simplified!$A$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">simplified!$A$1:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="138">
   <si>
     <t>L1</t>
   </si>
@@ -86,24 +86,12 @@
     <t>000</t>
   </si>
   <si>
-    <t>물리 피해</t>
-  </si>
-  <si>
     <t>볼마크</t>
   </si>
   <si>
     <t>디봇</t>
   </si>
   <si>
-    <t>장비 피해</t>
-  </si>
-  <si>
-    <t>기타 물리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">충해 </t>
-  </si>
-  <si>
     <t>나방류</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
     <t>응애류</t>
   </si>
   <si>
-    <t>기타 충해</t>
-  </si>
-  <si>
     <t>엽고성</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
     <t>페어리링</t>
   </si>
   <si>
-    <t>기타 병해</t>
-  </si>
-  <si>
     <t>화본과</t>
   </si>
   <si>
@@ -140,9 +122,6 @@
     <t>이끼</t>
   </si>
   <si>
-    <t>건강한 잔디</t>
-  </si>
-  <si>
     <t>220</t>
   </si>
   <si>
@@ -171,13 +150,316 @@
   </si>
   <si>
     <t>540</t>
+  </si>
+  <si>
+    <t>충해</t>
+  </si>
+  <si>
+    <t>건강한잔디</t>
+  </si>
+  <si>
+    <t>장비피해</t>
+  </si>
+  <si>
+    <t>기타물리</t>
+  </si>
+  <si>
+    <t>기타충해</t>
+  </si>
+  <si>
+    <t>물리피해</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>기타잡초</t>
+  </si>
+  <si>
+    <t>기타병해</t>
+  </si>
+  <si>
+    <t>탄저병</t>
+  </si>
+  <si>
+    <t>엽고병</t>
+  </si>
+  <si>
+    <t>동전마름병</t>
+  </si>
+  <si>
+    <t>피티움블라이트</t>
+  </si>
+  <si>
+    <t>도열병</t>
+  </si>
+  <si>
+    <t>브라운패취</t>
+  </si>
+  <si>
+    <t>라지패취</t>
+  </si>
+  <si>
+    <t>섬머패취</t>
+  </si>
+  <si>
+    <t>토양병</t>
+  </si>
+  <si>
+    <t>루트피티움</t>
+  </si>
+  <si>
+    <t>강아지풀</t>
+  </si>
+  <si>
+    <t>개밀</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>띠</t>
+  </si>
+  <si>
+    <t>바랭이</t>
+  </si>
+  <si>
+    <t>새포아풀</t>
+  </si>
+  <si>
+    <t>왕바랭이</t>
+  </si>
+  <si>
+    <t>향모</t>
+  </si>
+  <si>
+    <t>방동사니</t>
+  </si>
+  <si>
+    <t>파대가리</t>
+  </si>
+  <si>
+    <t>개갓냉이</t>
+  </si>
+  <si>
+    <t>개망초</t>
+  </si>
+  <si>
+    <t>개여뀌</t>
+  </si>
+  <si>
+    <t>괭이밥</t>
+  </si>
+  <si>
+    <t>꽃다지</t>
+  </si>
+  <si>
+    <t>꽃마리</t>
+  </si>
+  <si>
+    <t>냉이</t>
+  </si>
+  <si>
+    <t>닭의장풀</t>
+  </si>
+  <si>
+    <t>마디풀</t>
+  </si>
+  <si>
+    <t>망초</t>
+  </si>
+  <si>
+    <t>매듭풀</t>
+  </si>
+  <si>
+    <t>명아주</t>
+  </si>
+  <si>
+    <t>민들레</t>
+  </si>
+  <si>
+    <t>밭둑외풀</t>
+  </si>
+  <si>
+    <t>벼룩이자리</t>
+  </si>
+  <si>
+    <t>별꽃</t>
+  </si>
+  <si>
+    <t>선개불알풀</t>
+  </si>
+  <si>
+    <t>선피막이</t>
+  </si>
+  <si>
+    <t>쇠비름</t>
+  </si>
+  <si>
+    <t>애기땅빈대</t>
+  </si>
+  <si>
+    <t>여뀌</t>
+  </si>
+  <si>
+    <t>점너도나물</t>
+  </si>
+  <si>
+    <t>제비꽃</t>
+  </si>
+  <si>
+    <t>중대가리풀</t>
+  </si>
+  <si>
+    <t>질경이</t>
+  </si>
+  <si>
+    <t>토끼풀</t>
+  </si>
+  <si>
+    <t>피막이</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +472,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -732,19 +1021,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1084F7-BDB4-4E7B-8171-83A39DCB3DC8}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F3" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -754,107 +1045,137 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -862,99 +1183,754 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B64" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C64" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C19" xr:uid="{FD1084F7-BDB4-4E7B-8171-83A39DCB3DC8}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>